--- a/data/HelodermaData_WilliamRadke_07292025.xlsx
+++ b/data/HelodermaData_WilliamRadke_07292025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silver/Library/CloudStorage/Dropbox/CMG Documents/Classes/3-BIOL 5660/2-data_cleaning/data_cleaning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silver/Library/CloudStorage/Dropbox/CMG Documents/Classes/3-BIOL 5660/2-data_cleaning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8309286F-EF7E-AF40-9E2A-EC204060D8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47CD4DD-34B8-6349-95AD-E7AF68810E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="1960" windowWidth="30940" windowHeight="24080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14860" yWindow="500" windowWidth="30940" windowHeight="24080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="642">
   <si>
     <t>SVL (mm)</t>
   </si>
@@ -1960,6 +1960,9 @@
   </si>
   <si>
     <t>Gila monsters captured between 2000 - 2020, with all vital statistics, locations, comments, and collectors. Updated and proofed 04/14/2025 by William R. Radke.</t>
+  </si>
+  <si>
+    <t>~600</t>
   </si>
 </sst>
 </file>
@@ -2346,7 +2349,7 @@
   <dimension ref="A1:S334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2483,8 +2486,8 @@
       <c r="F6">
         <v>475</v>
       </c>
-      <c r="G6">
-        <v>600</v>
+      <c r="G6" t="s">
+        <v>641</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>56</v>
@@ -2984,8 +2987,8 @@
       <c r="F17">
         <v>496</v>
       </c>
-      <c r="G17">
-        <v>600</v>
+      <c r="G17" t="s">
+        <v>641</v>
       </c>
       <c r="H17" t="s">
         <v>56</v>
